--- a/12/USQCup/TEXAS_MIZZOU.xlsx
+++ b/12/USQCup/TEXAS_MIZZOU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\12\USQCup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2441FF-692C-4EC1-B6AC-DFDA1EC3766B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C8060-E1B7-4DE7-B08A-3D7502C631E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="44">
   <si>
     <t>A</t>
   </si>
@@ -94,27 +94,6 @@
     <t>DAVID HUBER</t>
   </si>
   <si>
-    <t>CULLEN FRIDAY</t>
-  </si>
-  <si>
-    <t>ERIN MCBRIDE</t>
-  </si>
-  <si>
-    <t>HALLIE PACE</t>
-  </si>
-  <si>
-    <t>EDDIE MOLINA</t>
-  </si>
-  <si>
-    <t>NICK MARINO</t>
-  </si>
-  <si>
-    <t>JOHN ANDERSON</t>
-  </si>
-  <si>
-    <t>AUSTIN DICKSON</t>
-  </si>
-  <si>
     <t>ED</t>
   </si>
   <si>
@@ -140,6 +119,48 @@
   </si>
   <si>
     <t>9,28</t>
+  </si>
+  <si>
+    <t>LUKE MEISSNER</t>
+  </si>
+  <si>
+    <t>GRAYSON BRIGGS</t>
+  </si>
+  <si>
+    <t>DAVIS ROE</t>
+  </si>
+  <si>
+    <t>JACK WANG</t>
+  </si>
+  <si>
+    <t>JOSH JOHNSON</t>
+  </si>
+  <si>
+    <t>JAYDAN GILSTRAP</t>
+  </si>
+  <si>
+    <t>KASYE BEVERS</t>
+  </si>
+  <si>
+    <t>SPENCER FORBES</t>
+  </si>
+  <si>
+    <t>RICHMOND KEELING</t>
+  </si>
+  <si>
+    <t>ANN SCHELIGA</t>
+  </si>
+  <si>
+    <t>OLIVE JIM-DANIELS</t>
+  </si>
+  <si>
+    <t>NATHAN LEWIS</t>
+  </si>
+  <si>
+    <t>ABBY WADE</t>
+  </si>
+  <si>
+    <t>CARLY JORDAN</t>
   </si>
 </sst>
 </file>
@@ -379,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,6 +445,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -697,21 +720,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -724,142 +747,142 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="24">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="26">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="25" t="str">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="27" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="16" t="str">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="18" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>120*</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="23"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="24">
+      <c r="C4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="26">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>4</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="25" t="str">
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="27" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="16" t="str">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="18" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>40</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -987,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>3</v>
@@ -1115,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>5</v>
@@ -1212,7 +1235,7 @@
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>0</v>
@@ -1235,7 +1258,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>10</v>
@@ -1264,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>3</v>
@@ -1282,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>6</v>
@@ -1322,7 +1345,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>0</v>
@@ -1366,7 +1389,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1430,7 @@
         <v>22</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>10</v>
@@ -1416,27 +1439,27 @@
         <v>10</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="10">
+        <v>20</v>
+      </c>
+      <c r="U17" s="11">
+        <v>6</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="X17" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="10">
-        <v>20</v>
-      </c>
-      <c r="X17" s="11">
-        <v>6</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1512,11 +1535,11 @@
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11">
         <v>2</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>11</v>
@@ -28920,17 +28943,18 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B80" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -28951,13 +28975,15 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -28975,13 +29001,15 @@
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -28989,15 +29017,15 @@
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>21</v>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -29010,33 +29038,37 @@
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -29049,7 +29081,7 @@
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -29057,13 +29089,15 @@
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -29071,7 +29105,9 @@
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -29082,7 +29118,7 @@
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -29090,7 +29126,7 @@
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -29098,8 +29134,8 @@
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>22</v>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29116,15 +29152,17 @@
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>23</v>
+      <c r="B29" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
@@ -29150,8 +29188,8 @@
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>25</v>
+      <c r="B35" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29193,15 +29231,14 @@
       <c r="A43" s="12">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="44" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="45" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
@@ -29223,85 +29260,82 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>62</v>
       </c>
@@ -29435,7 +29469,9 @@
       <c r="A90" s="12">
         <v>88</v>
       </c>
-      <c r="B90" s="12"/>
+      <c r="B90" s="16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="91" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
